--- a/NEW HR/SARMIENTO, MELQUIADES JR. F..xlsx
+++ b/NEW HR/SARMIENTO, MELQUIADES JR. F..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\CASUAL\DONEE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDC638F-5E41-4809-8922-8BBC7B90D628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -275,11 +276,17 @@
   <si>
     <t>TOTAL LEAVE</t>
   </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>7/14,17,18,19,20/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -658,8 +665,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -673,29 +692,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1386,7 +1393,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1436,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,7 +1500,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1560,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1626,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1689,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1787,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1846,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1911,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1954,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2029,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2215,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2281,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2339,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2405,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2461,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2536,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2579,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2645,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2701,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2799,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2862,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2911,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2921,25 +2928,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2951,25 +2958,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2981,13 +2988,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2996,14 +3003,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3307,7 +3314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3317,7 +3324,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3325,93 +3332,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5175" topLeftCell="A71" activePane="bottomLeft"/>
-      <selection activeCell="B13" sqref="B13"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="3504" topLeftCell="A73" activePane="bottomLeft"/>
+      <selection activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3419,7 +3426,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3432,24 +3439,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3484,7 +3491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3493,7 +3500,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>35.5</v>
+        <v>40.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3503,12 +3510,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>62.5</v>
+        <v>67.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3530,7 +3537,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3556,7 +3563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3576,7 +3583,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3596,7 +3603,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3616,7 +3623,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3636,7 +3643,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3656,7 +3663,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3676,7 +3683,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3696,7 +3703,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3722,7 +3729,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>52</v>
@@ -3744,7 +3751,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3770,7 +3777,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>69</v>
@@ -3792,7 +3799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43405</v>
       </c>
@@ -3818,7 +3825,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43435</v>
       </c>
@@ -3844,7 +3851,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>74</v>
@@ -3866,7 +3873,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -3888,7 +3895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>43</v>
       </c>
@@ -3906,7 +3913,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43466</v>
       </c>
@@ -3932,7 +3939,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43497</v>
       </c>
@@ -3952,7 +3959,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43525</v>
       </c>
@@ -3972,7 +3979,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43556</v>
       </c>
@@ -3992,7 +3999,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43586</v>
       </c>
@@ -4012,7 +4019,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43617</v>
       </c>
@@ -4032,7 +4039,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43647</v>
       </c>
@@ -4052,7 +4059,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43678</v>
       </c>
@@ -4072,7 +4079,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43709</v>
       </c>
@@ -4092,7 +4099,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43739</v>
       </c>
@@ -4112,7 +4119,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43770</v>
       </c>
@@ -4132,7 +4139,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43800</v>
       </c>
@@ -4156,7 +4163,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="48" t="s">
         <v>44</v>
       </c>
@@ -4174,7 +4181,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43831</v>
       </c>
@@ -4194,7 +4201,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43862</v>
       </c>
@@ -4214,7 +4221,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43891</v>
       </c>
@@ -4234,7 +4241,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43922</v>
       </c>
@@ -4254,7 +4261,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43952</v>
       </c>
@@ -4274,7 +4281,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43983</v>
       </c>
@@ -4294,7 +4301,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44013</v>
       </c>
@@ -4314,7 +4321,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44044</v>
       </c>
@@ -4334,7 +4341,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -4354,7 +4361,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -4374,7 +4381,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44136</v>
       </c>
@@ -4394,7 +4401,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44166</v>
       </c>
@@ -4418,7 +4425,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>45</v>
       </c>
@@ -4436,7 +4443,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44197</v>
       </c>
@@ -4456,7 +4463,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44228</v>
       </c>
@@ -4476,7 +4483,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44256</v>
       </c>
@@ -4496,7 +4503,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44287</v>
       </c>
@@ -4516,7 +4523,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44317</v>
       </c>
@@ -4536,7 +4543,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44348</v>
       </c>
@@ -4556,7 +4563,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44378</v>
       </c>
@@ -4576,7 +4583,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44409</v>
       </c>
@@ -4596,7 +4603,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44440</v>
       </c>
@@ -4616,7 +4623,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44470</v>
       </c>
@@ -4636,7 +4643,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44501</v>
       </c>
@@ -4656,7 +4663,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44531</v>
       </c>
@@ -4680,7 +4687,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>46</v>
       </c>
@@ -4698,7 +4705,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44562</v>
       </c>
@@ -4718,7 +4725,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44593</v>
       </c>
@@ -4738,7 +4745,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44621</v>
       </c>
@@ -4758,7 +4765,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44652</v>
       </c>
@@ -4778,7 +4785,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44682</v>
       </c>
@@ -4798,7 +4805,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44713</v>
       </c>
@@ -4818,7 +4825,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44743</v>
       </c>
@@ -4838,7 +4845,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44774</v>
       </c>
@@ -4858,7 +4865,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44805</v>
       </c>
@@ -4878,7 +4885,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44835</v>
       </c>
@@ -4898,7 +4905,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44866</v>
       </c>
@@ -4918,7 +4925,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44896</v>
       </c>
@@ -4942,7 +4949,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>47</v>
       </c>
@@ -4960,9 +4967,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4980,9 +4987,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -5000,72 +5007,90 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45016</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45046</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45077</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45107</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45138</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5080,8 +5105,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45169</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5096,8 +5123,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45199</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5112,8 +5141,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45230</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5128,8 +5159,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45260</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5144,8 +5177,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45291</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5160,8 +5195,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45322</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5176,8 +5213,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>45351</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5192,8 +5231,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45382</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5208,8 +5249,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45412</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5224,8 +5267,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45443</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5240,8 +5285,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45473</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5256,8 +5303,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>45504</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5272,8 +5321,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45535</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5288,8 +5339,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45565</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5304,8 +5357,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45596</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5320,7 +5375,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5336,7 +5391,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5352,7 +5407,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5368,7 +5423,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5384,7 +5439,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5400,7 +5455,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5416,7 +5471,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5432,7 +5487,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5448,7 +5503,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5464,7 +5519,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5480,7 +5535,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5496,7 +5551,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5512,7 +5567,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5528,7 +5583,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5544,7 +5599,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5560,7 +5615,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5576,7 +5631,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5592,7 +5647,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5608,7 +5663,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5624,7 +5679,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5640,7 +5695,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5656,7 +5711,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5672,7 +5727,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5688,7 +5743,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5704,7 +5759,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5720,7 +5775,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5736,7 +5791,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5752,7 +5807,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5768,7 +5823,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5784,7 +5839,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5800,7 +5855,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5816,7 +5871,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5832,7 +5887,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5848,7 +5903,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5864,7 +5919,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5880,7 +5935,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5896,7 +5951,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
       <c r="B138" s="15"/>
       <c r="C138" s="42"/>
@@ -5914,23 +5969,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5953,104 +6008,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A16" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="3564" topLeftCell="A21" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>SARMIENTO, MELQUIADES JR. F.</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="59" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="str">
+      <c r="B4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="53" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6058,7 +6113,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6071,24 +6126,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6123,7 +6178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6132,7 +6187,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.1170000000000009</v>
+        <v>2.1170000000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6147,7 +6202,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6169,7 +6224,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6193,7 +6248,7 @@
         <v>43111</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>52</v>
@@ -6215,7 +6270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>51</v>
@@ -6237,7 +6292,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43132</v>
       </c>
@@ -6261,7 +6316,7 @@
         <v>43141</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -6285,7 +6340,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43191</v>
       </c>
@@ -6307,7 +6362,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -6329,7 +6384,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -6353,7 +6408,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="15" t="s">
         <v>59</v>
@@ -6375,7 +6430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="15" t="s">
         <v>55</v>
@@ -6395,7 +6450,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43252</v>
       </c>
@@ -6419,7 +6474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43282</v>
       </c>
@@ -6441,7 +6496,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43313</v>
       </c>
@@ -6463,7 +6518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>64</v>
@@ -6485,7 +6540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43344</v>
       </c>
@@ -6509,9 +6564,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
-        <v>43374</v>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6527,13 +6582,17 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <v>43405</v>
-      </c>
-      <c r="B27" s="20"/>
+        <v>45113</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="39"/>
+      <c r="D27" s="39">
+        <v>5</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13" t="str">
@@ -6543,12 +6602,12 @@
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
-        <v>43435</v>
-      </c>
+      <c r="K27" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -6563,7 +6622,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6579,7 +6638,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6595,7 +6654,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6611,7 +6670,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6627,7 +6686,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6643,7 +6702,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6659,7 +6718,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6675,7 +6734,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6691,7 +6750,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6707,7 +6766,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6723,7 +6782,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6739,7 +6798,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6755,7 +6814,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6771,7 +6830,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6787,7 +6846,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6803,7 +6862,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6819,7 +6878,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6835,7 +6894,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6851,7 +6910,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6867,7 +6926,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6883,7 +6942,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6899,7 +6958,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6915,7 +6974,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6931,7 +6990,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6947,7 +7006,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6963,7 +7022,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6979,7 +7038,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6995,7 +7054,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7011,7 +7070,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7027,7 +7086,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7043,7 +7102,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7059,7 +7118,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7075,7 +7134,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7091,7 +7150,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7107,7 +7166,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7123,7 +7182,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7139,7 +7198,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7155,7 +7214,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7171,7 +7230,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7187,7 +7246,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7203,7 +7262,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7219,7 +7278,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7235,7 +7294,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7251,7 +7310,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7267,7 +7326,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7283,7 +7342,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7299,7 +7358,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7315,7 +7374,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7331,7 +7390,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7347,7 +7406,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7363,7 +7422,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7379,7 +7438,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7395,7 +7454,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7411,7 +7470,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7427,7 +7486,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7443,7 +7502,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7459,7 +7518,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7475,7 +7534,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7491,7 +7550,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7507,7 +7566,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7523,7 +7582,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7539,7 +7598,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7555,7 +7614,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7571,7 +7630,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7587,7 +7646,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7603,7 +7662,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7619,7 +7678,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7635,7 +7694,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7651,7 +7710,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7667,7 +7726,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7683,7 +7742,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7699,7 +7758,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7715,7 +7774,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7731,7 +7790,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7747,7 +7806,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7763,7 +7822,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7779,7 +7838,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7795,7 +7854,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7811,7 +7870,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7827,7 +7886,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7843,7 +7902,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7859,7 +7918,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7875,7 +7934,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7891,7 +7950,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7907,7 +7966,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7923,7 +7982,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7939,7 +7998,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7955,7 +8014,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7971,7 +8030,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7987,7 +8046,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8003,7 +8062,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8019,7 +8078,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8035,7 +8094,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8051,7 +8110,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8067,7 +8126,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8083,7 +8142,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8099,7 +8158,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8115,7 +8174,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8131,7 +8190,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8147,7 +8206,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8163,7 +8222,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8179,7 +8238,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8195,7 +8254,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8211,7 +8270,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8227,69 +8286,21 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="39"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="39"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="39"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="39"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8306,10 +8317,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8332,7 +8343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8340,34 +8351,34 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8396,7 +8407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>15.117000000000001</v>
       </c>
@@ -8420,17 +8431,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
@@ -8447,17 +8458,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="63">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="51">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -8485,7 +8496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8511,7 +8522,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8537,7 +8548,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8563,7 +8574,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8589,7 +8600,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8615,7 +8626,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8641,7 +8652,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8667,7 +8678,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8687,7 +8698,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8707,7 +8718,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8727,7 +8738,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8748,7 +8759,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8769,7 +8780,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8790,7 +8801,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8811,7 +8822,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8832,7 +8843,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8853,7 +8864,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8874,7 +8885,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8895,7 +8906,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8916,7 +8927,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8937,7 +8948,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8958,7 +8969,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8979,7 +8990,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9000,7 +9011,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9021,7 +9032,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9042,7 +9053,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9063,7 +9074,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9084,7 +9095,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9105,7 +9116,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9126,7 +9137,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9147,7 +9158,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9156,7 +9167,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9165,7 +9176,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9174,7 +9185,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9183,7 +9194,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9192,7 +9203,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9201,7 +9212,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9210,7 +9221,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9219,7 +9230,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9228,7 +9239,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9237,7 +9248,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9246,7 +9257,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9255,7 +9266,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9264,7 +9275,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9273,7 +9284,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9282,7 +9293,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9291,7 +9302,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9300,7 +9311,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9309,7 +9320,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9318,7 +9329,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9327,7 +9338,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9336,7 +9347,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9345,7 +9356,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9354,7 +9365,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9363,7 +9374,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9372,7 +9383,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9381,7 +9392,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9390,7 +9401,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9399,7 +9410,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9408,7 +9419,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/SARMIENTO, MELQUIADES JR. F..xlsx
+++ b/NEW HR/SARMIENTO, MELQUIADES JR. F..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDC638F-5E41-4809-8922-8BBC7B90D628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -286,7 +285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -671,15 +670,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -692,11 +682,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1393,7 +1392,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1436,7 +1435,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1499,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1560,7 +1559,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1625,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1688,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1786,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1845,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1910,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1953,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2028,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2214,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2280,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2338,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2404,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2460,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2535,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2578,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2644,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2700,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2798,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2861,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2911,7 +2910,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2928,25 +2927,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2958,25 +2957,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2988,13 +2987,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3003,14 +3002,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3314,7 +3313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3324,7 +3323,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3332,34 +3331,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="3504" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection activeCell="C9" sqref="C9"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="3510" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3371,16 +3370,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3389,16 +3388,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3409,16 +3408,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="57"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3426,7 +3425,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3439,24 +3438,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3500,7 +3499,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>40.5</v>
+        <v>43</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3510,12 +3509,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>67.5</v>
+        <v>70</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3537,7 +3536,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3583,7 +3582,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3603,7 +3602,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3623,7 +3622,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3643,7 +3642,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3663,7 +3662,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3683,7 +3682,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3703,7 +3702,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3729,7 +3728,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>52</v>
@@ -3751,7 +3750,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>69</v>
@@ -3799,7 +3798,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43405</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43435</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>74</v>
@@ -3873,7 +3872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -3895,7 +3894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>43</v>
       </c>
@@ -3913,7 +3912,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43466</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43497</v>
       </c>
@@ -3959,7 +3958,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43525</v>
       </c>
@@ -3979,7 +3978,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43556</v>
       </c>
@@ -3999,7 +3998,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43586</v>
       </c>
@@ -4019,7 +4018,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43617</v>
       </c>
@@ -4039,7 +4038,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43647</v>
       </c>
@@ -4059,7 +4058,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43678</v>
       </c>
@@ -4079,7 +4078,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43709</v>
       </c>
@@ -4099,7 +4098,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43739</v>
       </c>
@@ -4119,7 +4118,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43770</v>
       </c>
@@ -4139,7 +4138,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43800</v>
       </c>
@@ -4163,7 +4162,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>44</v>
       </c>
@@ -4181,7 +4180,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43831</v>
       </c>
@@ -4201,7 +4200,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43862</v>
       </c>
@@ -4221,7 +4220,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43891</v>
       </c>
@@ -4241,7 +4240,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43922</v>
       </c>
@@ -4261,7 +4260,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43952</v>
       </c>
@@ -4281,7 +4280,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43983</v>
       </c>
@@ -4301,7 +4300,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44013</v>
       </c>
@@ -4321,7 +4320,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44044</v>
       </c>
@@ -4341,7 +4340,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -4361,7 +4360,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -4381,7 +4380,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44136</v>
       </c>
@@ -4401,7 +4400,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44166</v>
       </c>
@@ -4425,7 +4424,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>45</v>
       </c>
@@ -4443,7 +4442,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44197</v>
       </c>
@@ -4463,7 +4462,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44228</v>
       </c>
@@ -4483,7 +4482,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44256</v>
       </c>
@@ -4503,7 +4502,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44287</v>
       </c>
@@ -4523,7 +4522,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44317</v>
       </c>
@@ -4543,7 +4542,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44348</v>
       </c>
@@ -4563,7 +4562,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44378</v>
       </c>
@@ -4583,7 +4582,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44409</v>
       </c>
@@ -4603,7 +4602,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44440</v>
       </c>
@@ -4623,7 +4622,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44470</v>
       </c>
@@ -4643,7 +4642,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44501</v>
       </c>
@@ -4663,7 +4662,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44531</v>
       </c>
@@ -4687,7 +4686,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>46</v>
       </c>
@@ -4705,7 +4704,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44562</v>
       </c>
@@ -4725,7 +4724,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44593</v>
       </c>
@@ -4745,7 +4744,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44621</v>
       </c>
@@ -4765,7 +4764,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44652</v>
       </c>
@@ -4785,7 +4784,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44682</v>
       </c>
@@ -4805,7 +4804,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44713</v>
       </c>
@@ -4825,7 +4824,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44743</v>
       </c>
@@ -4845,7 +4844,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44774</v>
       </c>
@@ -4865,7 +4864,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44805</v>
       </c>
@@ -4885,7 +4884,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44835</v>
       </c>
@@ -4905,7 +4904,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44866</v>
       </c>
@@ -4925,7 +4924,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44896</v>
       </c>
@@ -4949,7 +4948,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>47</v>
       </c>
@@ -4967,7 +4966,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44957</v>
       </c>
@@ -4987,7 +4986,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44985</v>
       </c>
@@ -5007,7 +5006,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45016</v>
       </c>
@@ -5027,7 +5026,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45046</v>
       </c>
@@ -5047,7 +5046,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45077</v>
       </c>
@@ -5067,7 +5066,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45107</v>
       </c>
@@ -5087,43 +5086,47 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45138</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45169</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45199</v>
       </c>
@@ -5141,7 +5144,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45230</v>
       </c>
@@ -5159,7 +5162,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45260</v>
       </c>
@@ -5177,7 +5180,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45291</v>
       </c>
@@ -5195,7 +5198,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45322</v>
       </c>
@@ -5213,7 +5216,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45351</v>
       </c>
@@ -5231,7 +5234,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45382</v>
       </c>
@@ -5249,7 +5252,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45412</v>
       </c>
@@ -5267,7 +5270,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45443</v>
       </c>
@@ -5285,7 +5288,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45473</v>
       </c>
@@ -5303,7 +5306,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45504</v>
       </c>
@@ -5321,7 +5324,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45535</v>
       </c>
@@ -5339,7 +5342,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45565</v>
       </c>
@@ -5357,7 +5360,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45596</v>
       </c>
@@ -5375,7 +5378,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5391,7 +5394,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5407,7 +5410,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5423,7 +5426,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5439,7 +5442,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5455,7 +5458,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5471,7 +5474,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5487,7 +5490,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5503,7 +5506,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5519,7 +5522,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5535,7 +5538,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5551,7 +5554,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5567,7 +5570,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5583,7 +5586,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5599,7 +5602,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5615,7 +5618,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5631,7 +5634,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5647,7 +5650,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5663,7 +5666,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5679,7 +5682,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5695,7 +5698,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5711,7 +5714,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5727,7 +5730,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5743,7 +5746,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5759,7 +5762,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5775,7 +5778,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5791,7 +5794,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5807,7 +5810,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5823,7 +5826,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5839,7 +5842,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5855,7 +5858,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5871,7 +5874,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5887,7 +5890,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5903,7 +5906,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5919,7 +5922,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5935,7 +5938,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5951,7 +5954,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41"/>
       <c r="B138" s="15"/>
       <c r="C138" s="42"/>
@@ -5969,23 +5972,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6008,34 +6011,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3564" topLeftCell="A21" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A18"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6048,16 +6051,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6069,19 +6072,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59" t="str">
+      <c r="F3" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6093,19 +6096,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="str">
+      <c r="F4" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="57"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6113,7 +6116,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6126,24 +6129,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6202,7 +6205,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6224,7 +6227,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>43111</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>52</v>
@@ -6270,7 +6273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>51</v>
@@ -6292,7 +6295,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43132</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>43141</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -6340,7 +6343,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43191</v>
       </c>
@@ -6362,7 +6365,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -6384,7 +6387,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -6408,7 +6411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="15" t="s">
         <v>59</v>
@@ -6430,7 +6433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="15" t="s">
         <v>55</v>
@@ -6450,7 +6453,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43252</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43282</v>
       </c>
@@ -6496,7 +6499,7 @@
         <v>43299</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43313</v>
       </c>
@@ -6518,7 +6521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>64</v>
@@ -6540,7 +6543,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43344</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>47</v>
       </c>
@@ -6582,7 +6585,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>45113</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6622,7 +6625,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6638,7 +6641,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6654,7 +6657,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6670,7 +6673,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6686,7 +6689,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6702,7 +6705,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6718,7 +6721,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6734,7 +6737,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6750,7 +6753,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6766,7 +6769,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6782,7 +6785,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6798,7 +6801,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6814,7 +6817,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6830,7 +6833,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6846,7 +6849,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6862,7 +6865,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6878,7 +6881,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6894,7 +6897,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6910,7 +6913,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6926,7 +6929,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6942,7 +6945,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6958,7 +6961,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6974,7 +6977,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6990,7 +6993,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -7006,7 +7009,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7022,7 +7025,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7038,7 +7041,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7054,7 +7057,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7070,7 +7073,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7086,7 +7089,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7102,7 +7105,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7118,7 +7121,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7134,7 +7137,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7150,7 +7153,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7166,7 +7169,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7182,7 +7185,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7198,7 +7201,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7214,7 +7217,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7230,7 +7233,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7246,7 +7249,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7262,7 +7265,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7278,7 +7281,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7294,7 +7297,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7310,7 +7313,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7326,7 +7329,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7342,7 +7345,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7358,7 +7361,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7374,7 +7377,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7390,7 +7393,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7406,7 +7409,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7422,7 +7425,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7438,7 +7441,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7454,7 +7457,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7470,7 +7473,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7486,7 +7489,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7502,7 +7505,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7518,7 +7521,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7534,7 +7537,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7550,7 +7553,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7566,7 +7569,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7582,7 +7585,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7598,7 +7601,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7614,7 +7617,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7630,7 +7633,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7646,7 +7649,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7662,7 +7665,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7678,7 +7681,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7694,7 +7697,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7710,7 +7713,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7726,7 +7729,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7742,7 +7745,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7758,7 +7761,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7774,7 +7777,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7790,7 +7793,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7806,7 +7809,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7822,7 +7825,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7838,7 +7841,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7854,7 +7857,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7870,7 +7873,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7886,7 +7889,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7902,7 +7905,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7918,7 +7921,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7934,7 +7937,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7950,7 +7953,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7966,7 +7969,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7982,7 +7985,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7998,7 +8001,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8014,7 +8017,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8030,7 +8033,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8046,7 +8049,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8062,7 +8065,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8078,7 +8081,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8094,7 +8097,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8110,7 +8113,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8126,7 +8129,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8142,7 +8145,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8158,7 +8161,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8174,7 +8177,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8190,7 +8193,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8206,7 +8209,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8222,7 +8225,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8238,7 +8241,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8254,7 +8257,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8270,7 +8273,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8286,7 +8289,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -8317,10 +8320,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8343,29 +8346,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -8378,7 +8381,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8407,7 +8410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>15.117000000000001</v>
       </c>
@@ -8431,17 +8434,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
@@ -8465,10 +8468,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="51">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -8496,7 +8499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8522,7 +8525,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8548,7 +8551,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8574,7 +8577,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8600,7 +8603,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8626,7 +8629,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8652,7 +8655,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8678,7 +8681,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8698,7 +8701,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8718,7 +8721,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8738,7 +8741,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8759,7 +8762,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8780,7 +8783,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8801,7 +8804,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8822,7 +8825,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8843,7 +8846,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8864,7 +8867,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8906,7 +8909,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8927,7 +8930,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8948,7 +8951,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8969,7 +8972,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8990,7 +8993,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9011,7 +9014,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9032,7 +9035,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9053,7 +9056,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9074,7 +9077,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9095,7 +9098,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9116,7 +9119,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9137,7 +9140,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9158,7 +9161,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9167,7 +9170,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9176,7 +9179,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9185,7 +9188,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9194,7 +9197,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9203,7 +9206,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9212,7 +9215,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9221,7 +9224,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9230,7 +9233,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9239,7 +9242,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9248,7 +9251,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9257,7 +9260,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9266,7 +9269,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9275,7 +9278,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9284,7 +9287,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9293,7 +9296,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9302,7 +9305,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9311,7 +9314,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9320,7 +9323,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9329,7 +9332,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9338,7 +9341,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9347,7 +9350,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9356,7 +9359,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9365,7 +9368,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9374,7 +9377,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9383,7 +9386,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9392,7 +9395,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9401,7 +9404,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9410,7 +9413,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9419,7 +9422,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/SARMIENTO, MELQUIADES JR. F..xlsx
+++ b/NEW HR/SARMIENTO, MELQUIADES JR. F..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +286,19 @@
   </si>
   <si>
     <t>12/14,15,18-22/2023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2024</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -676,15 +689,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -697,11 +701,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1398,7 +1411,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1454,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1505,7 +1518,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1578,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1644,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1707,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1805,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1864,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1929,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1972,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,7 +2047,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2233,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2299,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2357,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2423,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2479,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2554,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2597,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2663,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2719,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2817,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2880,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,7 +2946,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K139" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3341,12 +3354,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K138"/>
+  <dimension ref="A2:M139"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
       <pane ySplit="3510" topLeftCell="A79" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,7 +3377,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3376,16 +3389,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3394,16 +3407,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3414,16 +3427,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="57"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3431,7 +3444,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3444,24 +3457,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3496,7 +3509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3505,7 +3518,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>37.25</v>
+        <v>41</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3515,12 +3528,16 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>71.25</v>
+        <v>75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="44">
+        <f>SUM(I9,E9)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3542,7 +3559,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3568,7 +3585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3588,7 +3605,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3608,7 +3625,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3628,7 +3645,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3648,7 +3665,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -5159,15 +5176,17 @@
       <c r="B89" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39">
         <v>7</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -5181,13 +5200,15 @@
         <v>45260</v>
       </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -5199,13 +5220,15 @@
         <v>45291</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -5213,8 +5236,8 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>45322</v>
+      <c r="A92" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5232,7 +5255,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5250,7 +5273,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5268,7 +5291,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5286,7 +5309,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5304,7 +5327,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5322,7 +5345,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5340,7 +5363,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5358,7 +5381,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5376,7 +5399,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5393,7 +5416,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45596</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5969,34 +5994,50 @@
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="41"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="43"/>
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="43"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="15"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="41"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="43"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6031,7 +6072,7 @@
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
@@ -6065,14 +6106,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6086,17 +6127,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59" t="str">
+      <c r="F3" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6110,17 +6151,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="str">
+      <c r="F4" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6146,18 +6187,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -8485,7 +8526,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="51">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>108.5</v>
+        <v>116</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
